--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0024-005 - Fitur Pada Customer Service.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0024-005 - Fitur Pada Customer Service.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B698D-D557-4524-8ED3-CE8CFED1ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AA4C02-B021-4188-B853-6719EF9F066C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0326" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0024" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,9 +101,6 @@
     <t>ReportStagging.xlsx</t>
   </si>
   <si>
-    <t>DGS-341</t>
-  </si>
-  <si>
     <t>Staging Activity
 - Login menggunakan username &amp; password yang benar 
   User : 51162
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Juni</t>
+  </si>
+  <si>
+    <t>SCD0024-005</t>
   </si>
 </sst>
 </file>
@@ -541,13 +541,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="5">
         <v>51162</v>
@@ -660,7 +660,7 @@
         <v>2022</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
